--- a/prototype_python/data/ppp/P1_ProcessingSpeed.xlsx
+++ b/prototype_python/data/ppp/P1_ProcessingSpeed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Stimulus_Side</t>
   </si>
@@ -52,10 +52,10 @@
     <t>Task</t>
   </si>
   <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
     <t>LEFT</t>
-  </si>
-  <si>
-    <t>RIGHT</t>
   </si>
   <si>
     <t>DOWN</t>
@@ -481,19 +481,19 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1009.4575</v>
+        <v>444.442599999995</v>
       </c>
       <c r="G2" s="2">
-        <v>43775.51311083844</v>
+        <v>43775.52709465539</v>
       </c>
       <c r="H2" s="2">
-        <v>43775.51312494584</v>
+        <v>43775.52710222757</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3049688833333333</v>
+        <v>0.2707841666666667</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -504,28 +504,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>1000.000002</v>
+        <v>500.000001</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>249.3102</v>
+        <v>281.8393999999955</v>
       </c>
       <c r="G3" s="2">
-        <v>43775.51313663452</v>
+        <v>43775.52710822756</v>
       </c>
       <c r="H3" s="2">
-        <v>43775.51314193306</v>
+        <v>43775.52711391835</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.3049688833333333</v>
+        <v>0.2707841666666667</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -536,28 +536,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>1500.000003</v>
+        <v>1000.000002</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>220.9730999999984</v>
+        <v>262.7682000000036</v>
       </c>
       <c r="G4" s="2">
-        <v>43775.51315942323</v>
+        <v>43775.52712560497</v>
       </c>
       <c r="H4" s="2">
-        <v>43775.51316439898</v>
+        <v>43775.52713107648</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>0.3049688833333333</v>
+        <v>0.2707841666666667</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -571,25 +571,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>500.000001</v>
+        <v>1500.000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>-318.15</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>357.6721999999996</v>
+        <v>264.6757999999991</v>
       </c>
       <c r="G5" s="2">
-        <v>43775.51317043605</v>
+        <v>43775.52714864595</v>
       </c>
       <c r="H5" s="2">
-        <v>43775.51317699264</v>
+        <v>43775.52715412901</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.3049688833333333</v>
+        <v>0.2707841666666667</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -600,28 +606,28 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>1000.000002</v>
+        <v>1500.000003</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>232.6215000000005</v>
+        <v>274.7408000000036</v>
       </c>
       <c r="G6" s="2">
-        <v>43775.51318880207</v>
+        <v>43775.5271717047</v>
       </c>
       <c r="H6" s="2">
-        <v>43775.51319391574</v>
+        <v>43775.52717731489</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.3049688833333333</v>
+        <v>0.2707841666666667</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -632,28 +638,28 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>1500.000003</v>
+        <v>1000.000002</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>248.111999999999</v>
+        <v>322.041899999995</v>
       </c>
       <c r="G7" s="2">
-        <v>43775.51321152497</v>
+        <v>43775.52718910533</v>
       </c>
       <c r="H7" s="2">
-        <v>43775.51321682794</v>
+        <v>43775.52719526465</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.3049688833333333</v>
+        <v>0.2707841666666667</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
